--- a/Tables/Supp Table 1 - FullGoDensityLocality.xlsx
+++ b/Tables/Supp Table 1 - FullGoDensityLocality.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\rob\Documents\CamocoManuscript\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\CamocoManuscript\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="17670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Supp. Table 1 - Full Network GO" sheetId="1" r:id="rId1"/>
@@ -3345,7 +3345,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Density and locality scores were measured between genes within each GO term. Subnetwork p-values were generated for both density and locality by comparing each term’s metric to 1,000 randomized gene sets of the same size.
+Density and locality scores were measured between genes within each GO term. Subnetwork p-values were generated for both density and locality by comparing each term’s metric to 1,000 randomized gene sets of the same size. The "Number of Network Genes in GO Terms" indicates the intersect between genes present in the network and genes annotated to a GO term.
 </t>
     </r>
   </si>
@@ -4214,23 +4214,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E436" sqref="E6:M436"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="15.1796875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="15.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="71" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1086</v>
       </c>
@@ -4244,7 +4244,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1084</v>
@@ -4262,7 +4262,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>85</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>86</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>88</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>89</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>90</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>92</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>93</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>94</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>96</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>97</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>98</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>99</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>100</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>101</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>102</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>103</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>104</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>105</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>106</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>107</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>108</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>109</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>110</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>111</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>112</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>113</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>114</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>115</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>116</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>117</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>118</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>119</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>120</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>121</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>122</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>123</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>124</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>125</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>126</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>127</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>128</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>129</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>130</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>131</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>132</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>133</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>134</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>135</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>136</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>137</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>138</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>139</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>140</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>141</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>142</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>143</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>144</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>145</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>146</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>147</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>148</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>149</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>150</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>151</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>152</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>153</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>154</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>155</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>156</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>157</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>158</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>159</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>160</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>161</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>163</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>164</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>165</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>166</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>167</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>168</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>169</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>170</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>171</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>172</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>173</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>174</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>175</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>176</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>177</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>178</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>179</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>180</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>181</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>182</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>183</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>184</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>185</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>186</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>187</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>188</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>189</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>190</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>191</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>192</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>193</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>194</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>195</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>196</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>197</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>198</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>199</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>200</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>201</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>202</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>203</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>204</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>205</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>206</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>207</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>208</v>
       </c>
@@ -10950,7 +10950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>209</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>210</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>211</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>212</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>213</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>214</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>215</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>216</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>217</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>218</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>219</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>220</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>221</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>222</v>
       </c>
@@ -11398,7 +11398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>223</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>224</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>225</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>226</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>227</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>228</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>229</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>230</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>231</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>232</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>233</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>234</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>235</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>236</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>237</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>238</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>239</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>240</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>241</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>242</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>243</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>244</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>245</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>246</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>247</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>248</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>249</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>250</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>251</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>252</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>253</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>254</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>255</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>256</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>257</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>258</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>259</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>260</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>261</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>262</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>263</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>264</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>265</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>266</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>267</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>268</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>269</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>270</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>271</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>272</v>
       </c>
@@ -12998,7 +12998,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>273</v>
       </c>
@@ -13030,7 +13030,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>274</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>275</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>276</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>277</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>278</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>279</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>280</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>281</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>282</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>283</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>284</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>285</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>286</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>287</v>
       </c>
@@ -13478,7 +13478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>288</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>289</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>290</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>291</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>292</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>293</v>
       </c>
@@ -13670,7 +13670,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>294</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>295</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>296</v>
       </c>
@@ -13766,7 +13766,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>297</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>298</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>299</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>300</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>301</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>302</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>303</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>304</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>305</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>306</v>
       </c>
@@ -14086,7 +14086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>307</v>
       </c>
@@ -14118,7 +14118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>308</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>309</v>
       </c>
@@ -14182,7 +14182,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>310</v>
       </c>
@@ -14214,7 +14214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>311</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>312</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>313</v>
       </c>
@@ -14310,7 +14310,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>314</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>315</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>316</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>317</v>
       </c>
@@ -14438,7 +14438,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>318</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>319</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>320</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>321</v>
       </c>
@@ -14566,7 +14566,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>322</v>
       </c>
@@ -14598,7 +14598,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>323</v>
       </c>
@@ -14630,7 +14630,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>324</v>
       </c>
@@ -14662,7 +14662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>325</v>
       </c>
@@ -14694,7 +14694,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>326</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>327</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>328</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>329</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>330</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>331</v>
       </c>
@@ -14886,7 +14886,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>332</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>333</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>334</v>
       </c>
@@ -14982,7 +14982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>335</v>
       </c>
@@ -15014,7 +15014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>336</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>337</v>
       </c>
@@ -15078,7 +15078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>338</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>339</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>340</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>341</v>
       </c>
@@ -15206,7 +15206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>342</v>
       </c>
@@ -15238,7 +15238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>343</v>
       </c>
@@ -15270,7 +15270,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>344</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>345</v>
       </c>
@@ -15334,7 +15334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>346</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>347</v>
       </c>
@@ -15398,7 +15398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>348</v>
       </c>
@@ -15430,7 +15430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>349</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>350</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>351</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>352</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>353</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>354</v>
       </c>
@@ -15622,7 +15622,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>355</v>
       </c>
@@ -15654,7 +15654,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>356</v>
       </c>
@@ -15686,7 +15686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>357</v>
       </c>
@@ -15718,7 +15718,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>358</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>359</v>
       </c>
@@ -15782,7 +15782,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>360</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>361</v>
       </c>
@@ -15846,7 +15846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>362</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>363</v>
       </c>
@@ -15910,7 +15910,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>364</v>
       </c>
@@ -15942,7 +15942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>365</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>366</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>367</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>368</v>
       </c>
@@ -16070,7 +16070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>369</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>370</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>371</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>372</v>
       </c>
@@ -16198,7 +16198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>373</v>
       </c>
@@ -16230,7 +16230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>374</v>
       </c>
@@ -16262,7 +16262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>375</v>
       </c>
@@ -16294,7 +16294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>376</v>
       </c>
@@ -16326,7 +16326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>377</v>
       </c>
@@ -16358,7 +16358,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>378</v>
       </c>
@@ -16390,7 +16390,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>379</v>
       </c>
@@ -16422,7 +16422,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>380</v>
       </c>
@@ -16454,7 +16454,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>381</v>
       </c>
@@ -16486,7 +16486,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>382</v>
       </c>
@@ -16518,7 +16518,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>383</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>384</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>385</v>
       </c>
@@ -16614,7 +16614,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>386</v>
       </c>
@@ -16646,7 +16646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>387</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>388</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>389</v>
       </c>
@@ -16742,7 +16742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>390</v>
       </c>
@@ -16774,7 +16774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>391</v>
       </c>
@@ -16806,7 +16806,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>392</v>
       </c>
@@ -16838,7 +16838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>393</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>394</v>
       </c>
@@ -16902,7 +16902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>395</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>396</v>
       </c>
@@ -16966,7 +16966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>397</v>
       </c>
@@ -16998,7 +16998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>398</v>
       </c>
@@ -17030,7 +17030,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>399</v>
       </c>
@@ -17062,7 +17062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>400</v>
       </c>
@@ -17094,7 +17094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>401</v>
       </c>
@@ -17126,7 +17126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>402</v>
       </c>
@@ -17158,7 +17158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>403</v>
       </c>
@@ -17190,7 +17190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>404</v>
       </c>
@@ -17222,7 +17222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>405</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>406</v>
       </c>
@@ -17286,7 +17286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>407</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>408</v>
       </c>
@@ -17350,7 +17350,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>409</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>410</v>
       </c>
@@ -17414,7 +17414,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>411</v>
       </c>
@@ -17446,7 +17446,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>412</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>413</v>
       </c>
@@ -17510,7 +17510,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>414</v>
       </c>
@@ -17542,7 +17542,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>415</v>
       </c>
@@ -17574,7 +17574,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>416</v>
       </c>
@@ -17606,7 +17606,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>417</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>418</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>419</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>420</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>421</v>
       </c>
@@ -17766,7 +17766,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>422</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>423</v>
       </c>
@@ -17830,7 +17830,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>424</v>
       </c>
@@ -17862,7 +17862,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>425</v>
       </c>
@@ -17894,7 +17894,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>426</v>
       </c>
@@ -17926,7 +17926,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>427</v>
       </c>
@@ -17958,7 +17958,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>428</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>429</v>
       </c>
@@ -18022,7 +18022,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>430</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>431</v>
       </c>
@@ -18086,7 +18086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>432</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>433</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>434</v>
       </c>
@@ -18182,7 +18182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>435</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>436</v>
       </c>
@@ -18246,7 +18246,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>437</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>438</v>
       </c>
@@ -18310,7 +18310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>439</v>
       </c>
@@ -18342,7 +18342,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>440</v>
       </c>
@@ -18374,7 +18374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>441</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>442</v>
       </c>
@@ -18438,7 +18438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>443</v>
       </c>
@@ -18470,7 +18470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>444</v>
       </c>
@@ -18502,7 +18502,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>445</v>
       </c>
@@ -18534,7 +18534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>446</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>447</v>
       </c>
@@ -18598,7 +18598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>448</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>449</v>
       </c>
@@ -18662,7 +18662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>450</v>
       </c>
@@ -18694,7 +18694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>451</v>
       </c>
@@ -18726,7 +18726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>452</v>
       </c>
@@ -18758,7 +18758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>453</v>
       </c>
@@ -18790,7 +18790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>454</v>
       </c>
@@ -18822,7 +18822,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>455</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>456</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>457</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>458</v>
       </c>
@@ -18950,7 +18950,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>459</v>
       </c>
@@ -18982,7 +18982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>460</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>461</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>462</v>
       </c>
@@ -19078,7 +19078,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>463</v>
       </c>
@@ -19110,7 +19110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>464</v>
       </c>
@@ -19142,7 +19142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>465</v>
       </c>
@@ -19174,7 +19174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>466</v>
       </c>
@@ -19206,7 +19206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>467</v>
       </c>
@@ -19238,7 +19238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>468</v>
       </c>
@@ -19270,7 +19270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>469</v>
       </c>
@@ -19302,7 +19302,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>470</v>
       </c>
@@ -19334,7 +19334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>471</v>
       </c>
@@ -19366,7 +19366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>472</v>
       </c>
@@ -19398,7 +19398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>473</v>
       </c>
@@ -19430,7 +19430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>474</v>
       </c>
@@ -19462,7 +19462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>475</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>476</v>
       </c>
@@ -19526,7 +19526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>477</v>
       </c>
@@ -19558,7 +19558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>478</v>
       </c>
@@ -19590,7 +19590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>479</v>
       </c>
@@ -19622,7 +19622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>480</v>
       </c>
@@ -19654,7 +19654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>481</v>
       </c>
@@ -19686,7 +19686,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>482</v>
       </c>
@@ -19718,7 +19718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>483</v>
       </c>
@@ -19750,7 +19750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>484</v>
       </c>
@@ -19782,7 +19782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>485</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>486</v>
       </c>
@@ -19846,7 +19846,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>487</v>
       </c>
@@ -19878,7 +19878,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>488</v>
       </c>
@@ -19910,7 +19910,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>489</v>
       </c>
@@ -19942,7 +19942,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>490</v>
       </c>
@@ -19974,7 +19974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>491</v>
       </c>
@@ -20006,7 +20006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>492</v>
       </c>
@@ -20038,7 +20038,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>493</v>
       </c>
@@ -20070,7 +20070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>494</v>
       </c>
@@ -20102,7 +20102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>495</v>
       </c>
@@ -20134,7 +20134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>496</v>
       </c>
@@ -20166,7 +20166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>497</v>
       </c>
@@ -20198,7 +20198,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>498</v>
       </c>
@@ -20230,7 +20230,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>499</v>
       </c>
@@ -20262,7 +20262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>500</v>
       </c>
@@ -20294,7 +20294,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>501</v>
       </c>
@@ -20326,7 +20326,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>502</v>
       </c>
@@ -20358,7 +20358,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>503</v>
       </c>
@@ -20390,7 +20390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>504</v>
       </c>
@@ -20422,7 +20422,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>505</v>
       </c>
@@ -20454,7 +20454,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>506</v>
       </c>
@@ -20486,7 +20486,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>507</v>
       </c>
@@ -20518,7 +20518,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>508</v>
       </c>
@@ -20550,7 +20550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>509</v>
       </c>
@@ -20582,7 +20582,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>510</v>
       </c>
@@ -20614,7 +20614,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>511</v>
       </c>
@@ -20646,7 +20646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>512</v>
       </c>
@@ -20678,7 +20678,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>513</v>
       </c>
@@ -20710,7 +20710,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>514</v>
       </c>
@@ -20742,7 +20742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>515</v>
       </c>
@@ -20774,7 +20774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>516</v>
       </c>
@@ -20806,7 +20806,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>517</v>
       </c>
@@ -20838,7 +20838,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>518</v>
       </c>
@@ -20870,7 +20870,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>519</v>
       </c>
@@ -20902,7 +20902,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>520</v>
       </c>
@@ -20934,7 +20934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>521</v>
       </c>
@@ -20966,7 +20966,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>522</v>
       </c>
@@ -20998,7 +20998,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>523</v>
       </c>
@@ -21030,7 +21030,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>524</v>
       </c>
@@ -21062,7 +21062,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>525</v>
       </c>
@@ -21094,7 +21094,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>526</v>
       </c>
@@ -21126,7 +21126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>527</v>
       </c>
@@ -21158,7 +21158,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>528</v>
       </c>
@@ -21190,7 +21190,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>529</v>
       </c>
@@ -21222,7 +21222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>530</v>
       </c>
@@ -21254,7 +21254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>531</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>532</v>
       </c>
@@ -21318,7 +21318,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>533</v>
       </c>
@@ -21350,7 +21350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>534</v>
       </c>
@@ -21382,7 +21382,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>535</v>
       </c>
@@ -21414,7 +21414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>536</v>
       </c>
@@ -21446,7 +21446,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>537</v>
       </c>
@@ -21478,7 +21478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>538</v>
       </c>
@@ -21510,7 +21510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>539</v>
       </c>
@@ -21542,7 +21542,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>540</v>
       </c>
@@ -21574,7 +21574,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>541</v>
       </c>
@@ -21606,7 +21606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>542</v>
       </c>
@@ -21638,7 +21638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>543</v>
       </c>
@@ -21670,7 +21670,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>544</v>
       </c>
@@ -21702,7 +21702,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>545</v>
       </c>
@@ -21734,7 +21734,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>546</v>
       </c>
@@ -21766,7 +21766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>547</v>
       </c>
@@ -21798,7 +21798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>548</v>
       </c>
@@ -21830,7 +21830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>549</v>
       </c>
@@ -21862,7 +21862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>550</v>
       </c>
@@ -21894,7 +21894,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>551</v>
       </c>
@@ -21926,7 +21926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>552</v>
       </c>
@@ -21958,7 +21958,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>553</v>
       </c>
@@ -21990,7 +21990,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>554</v>
       </c>
@@ -22022,7 +22022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>555</v>
       </c>
@@ -22054,7 +22054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>556</v>
       </c>
@@ -22086,7 +22086,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>557</v>
       </c>
@@ -22118,7 +22118,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>558</v>
       </c>
@@ -22150,7 +22150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>559</v>
       </c>
@@ -22182,7 +22182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>560</v>
       </c>
@@ -22214,7 +22214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>561</v>
       </c>
@@ -22246,7 +22246,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>562</v>
       </c>
@@ -22278,7 +22278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>563</v>
       </c>
@@ -22310,7 +22310,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>564</v>
       </c>
@@ -22342,7 +22342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>565</v>
       </c>
@@ -22374,7 +22374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>566</v>
       </c>
@@ -22406,7 +22406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>567</v>
       </c>
@@ -22438,7 +22438,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>568</v>
       </c>
@@ -22470,7 +22470,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>569</v>
       </c>
@@ -22502,7 +22502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>570</v>
       </c>
@@ -22534,7 +22534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>571</v>
       </c>
@@ -22566,7 +22566,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>572</v>
       </c>
@@ -22598,7 +22598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>573</v>
       </c>
@@ -22630,7 +22630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>574</v>
       </c>
@@ -22662,7 +22662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>575</v>
       </c>
@@ -22694,7 +22694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>576</v>
       </c>
@@ -22726,7 +22726,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>577</v>
       </c>
@@ -22758,7 +22758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>578</v>
       </c>
@@ -22790,7 +22790,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>579</v>
       </c>
@@ -22822,7 +22822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>580</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>581</v>
       </c>
@@ -22886,7 +22886,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>582</v>
       </c>
@@ -22918,7 +22918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>583</v>
       </c>
@@ -22950,7 +22950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>584</v>
       </c>
@@ -22982,7 +22982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>585</v>
       </c>
@@ -23014,7 +23014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>586</v>
       </c>
@@ -23046,7 +23046,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>587</v>
       </c>
@@ -23078,7 +23078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>588</v>
       </c>
@@ -23110,7 +23110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>589</v>
       </c>
@@ -23142,7 +23142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>590</v>
       </c>
@@ -23174,7 +23174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>591</v>
       </c>
@@ -23206,7 +23206,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>592</v>
       </c>
@@ -23238,7 +23238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>593</v>
       </c>
@@ -23270,7 +23270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>594</v>
       </c>
@@ -23302,7 +23302,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>595</v>
       </c>
@@ -23334,7 +23334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>596</v>
       </c>
@@ -23366,7 +23366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>597</v>
       </c>
@@ -23398,7 +23398,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>598</v>
       </c>
@@ -23430,7 +23430,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>599</v>
       </c>
@@ -23462,7 +23462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>600</v>
       </c>
@@ -23494,7 +23494,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>601</v>
       </c>
@@ -23526,7 +23526,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>602</v>
       </c>
@@ -23558,7 +23558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>603</v>
       </c>
@@ -23590,7 +23590,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>604</v>
       </c>
@@ -23622,7 +23622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>605</v>
       </c>
@@ -23654,7 +23654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>606</v>
       </c>
@@ -23686,7 +23686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>607</v>
       </c>
@@ -23718,7 +23718,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>608</v>
       </c>
@@ -23750,7 +23750,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>609</v>
       </c>
@@ -23782,7 +23782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>610</v>
       </c>
@@ -23814,7 +23814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>611</v>
       </c>
@@ -23846,7 +23846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>612</v>
       </c>
@@ -23878,7 +23878,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>613</v>
       </c>
@@ -23910,7 +23910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>614</v>
       </c>
@@ -23942,7 +23942,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>615</v>
       </c>
@@ -23974,7 +23974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>616</v>
       </c>
@@ -24006,7 +24006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>617</v>
       </c>
@@ -24038,7 +24038,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>618</v>
       </c>
@@ -24070,7 +24070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>619</v>
       </c>
@@ -24102,7 +24102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>620</v>
       </c>
@@ -24134,7 +24134,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>621</v>
       </c>
@@ -24166,7 +24166,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>622</v>
       </c>
@@ -24198,7 +24198,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>623</v>
       </c>
@@ -24230,7 +24230,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>624</v>
       </c>
@@ -24262,7 +24262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>625</v>
       </c>
@@ -24294,7 +24294,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>626</v>
       </c>
@@ -24326,7 +24326,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>627</v>
       </c>
@@ -24358,7 +24358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>628</v>
       </c>
@@ -24390,7 +24390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>629</v>
       </c>
@@ -24422,7 +24422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>630</v>
       </c>
@@ -24454,7 +24454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>631</v>
       </c>
@@ -24486,7 +24486,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>632</v>
       </c>
@@ -24518,7 +24518,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>633</v>
       </c>
@@ -24550,7 +24550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>634</v>
       </c>
@@ -24582,7 +24582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>635</v>
       </c>
@@ -24614,7 +24614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>636</v>
       </c>
@@ -24646,7 +24646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>637</v>
       </c>
@@ -24678,7 +24678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>638</v>
       </c>
@@ -24710,7 +24710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>639</v>
       </c>
@@ -24742,7 +24742,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>640</v>
       </c>
@@ -24774,7 +24774,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>641</v>
       </c>
@@ -24806,7 +24806,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>642</v>
       </c>
@@ -24838,7 +24838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>643</v>
       </c>
@@ -24870,7 +24870,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>644</v>
       </c>
@@ -24902,7 +24902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>645</v>
       </c>
@@ -24934,7 +24934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>646</v>
       </c>
@@ -24966,7 +24966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>647</v>
       </c>
@@ -24998,7 +24998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>648</v>
       </c>
@@ -25030,7 +25030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>649</v>
       </c>
@@ -25062,7 +25062,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>650</v>
       </c>
@@ -25094,7 +25094,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>651</v>
       </c>
@@ -25126,7 +25126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>652</v>
       </c>
@@ -25158,7 +25158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
         <v>653</v>
       </c>
@@ -25190,7 +25190,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>654</v>
       </c>
@@ -25222,7 +25222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>655</v>
       </c>
@@ -25254,7 +25254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>656</v>
       </c>
@@ -25286,7 +25286,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>657</v>
       </c>
@@ -25318,7 +25318,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>658</v>
       </c>
@@ -25350,7 +25350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>659</v>
       </c>
@@ -25382,7 +25382,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>660</v>
       </c>
@@ -25414,7 +25414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>661</v>
       </c>
@@ -25446,7 +25446,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>662</v>
       </c>
@@ -25478,7 +25478,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>663</v>
       </c>
@@ -25510,7 +25510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>664</v>
       </c>
@@ -25542,7 +25542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>665</v>
       </c>
@@ -25574,7 +25574,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>666</v>
       </c>
@@ -25606,7 +25606,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>667</v>
       </c>
@@ -25638,7 +25638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>668</v>
       </c>
@@ -25670,7 +25670,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>669</v>
       </c>
@@ -25702,7 +25702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>670</v>
       </c>
@@ -25734,7 +25734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>671</v>
       </c>
@@ -25766,7 +25766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>672</v>
       </c>
@@ -25798,7 +25798,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>673</v>
       </c>
@@ -25830,7 +25830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>674</v>
       </c>
@@ -25862,7 +25862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>675</v>
       </c>
@@ -25894,7 +25894,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>676</v>
       </c>
@@ -25926,7 +25926,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>677</v>
       </c>
@@ -25958,7 +25958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>678</v>
       </c>
@@ -25990,7 +25990,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>679</v>
       </c>
@@ -26022,7 +26022,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>680</v>
       </c>
@@ -26054,7 +26054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>681</v>
       </c>
@@ -26086,7 +26086,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>682</v>
       </c>
@@ -26118,7 +26118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>683</v>
       </c>
@@ -26150,7 +26150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>684</v>
       </c>
@@ -26182,7 +26182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>685</v>
       </c>
@@ -26214,7 +26214,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>686</v>
       </c>
@@ -26246,7 +26246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>687</v>
       </c>
@@ -26278,7 +26278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>688</v>
       </c>
@@ -26310,7 +26310,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>689</v>
       </c>
@@ -26342,7 +26342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>690</v>
       </c>
@@ -26374,7 +26374,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>691</v>
       </c>
@@ -26406,7 +26406,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>692</v>
       </c>
@@ -26438,7 +26438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>693</v>
       </c>
@@ -26470,7 +26470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>694</v>
       </c>
@@ -26502,7 +26502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>695</v>
       </c>
@@ -26534,7 +26534,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>696</v>
       </c>
@@ -26566,7 +26566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>697</v>
       </c>
@@ -26598,7 +26598,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>698</v>
       </c>
@@ -26630,7 +26630,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>699</v>
       </c>
@@ -26662,7 +26662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>700</v>
       </c>
@@ -26694,7 +26694,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>701</v>
       </c>
@@ -26726,7 +26726,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>702</v>
       </c>
@@ -26758,7 +26758,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>703</v>
       </c>
@@ -26790,7 +26790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>704</v>
       </c>
@@ -26822,7 +26822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>705</v>
       </c>
@@ -26854,7 +26854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>706</v>
       </c>
@@ -26886,7 +26886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>707</v>
       </c>
@@ -26918,7 +26918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>708</v>
       </c>
@@ -26950,7 +26950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>709</v>
       </c>
@@ -26982,7 +26982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>710</v>
       </c>
@@ -27014,7 +27014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>711</v>
       </c>
@@ -27046,7 +27046,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>712</v>
       </c>
@@ -27078,7 +27078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
         <v>713</v>
       </c>
@@ -27110,7 +27110,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>714</v>
       </c>
@@ -27142,7 +27142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>715</v>
       </c>
@@ -27174,7 +27174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
         <v>716</v>
       </c>
@@ -27206,7 +27206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
         <v>717</v>
       </c>
@@ -27238,7 +27238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>718</v>
       </c>
@@ -27270,7 +27270,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
         <v>719</v>
       </c>
@@ -27302,7 +27302,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
         <v>720</v>
       </c>
@@ -27334,7 +27334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
         <v>721</v>
       </c>
@@ -27366,7 +27366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
         <v>722</v>
       </c>
@@ -27398,7 +27398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
         <v>723</v>
       </c>
@@ -27430,7 +27430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>724</v>
       </c>
@@ -27462,7 +27462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>725</v>
       </c>
@@ -27494,7 +27494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>726</v>
       </c>
@@ -27526,7 +27526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>727</v>
       </c>
@@ -27558,7 +27558,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>728</v>
       </c>
@@ -27590,7 +27590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
         <v>729</v>
       </c>
@@ -27622,7 +27622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
         <v>730</v>
       </c>
@@ -27654,7 +27654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
         <v>731</v>
       </c>
@@ -27686,7 +27686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>732</v>
       </c>
@@ -27718,7 +27718,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
         <v>733</v>
       </c>
@@ -27750,7 +27750,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
         <v>734</v>
       </c>
@@ -27782,7 +27782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
         <v>735</v>
       </c>
@@ -27814,7 +27814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
         <v>736</v>
       </c>
@@ -27846,7 +27846,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
         <v>737</v>
       </c>
@@ -27878,7 +27878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
         <v>738</v>
       </c>
@@ -27910,7 +27910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
         <v>739</v>
       </c>
@@ -27942,7 +27942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
         <v>740</v>
       </c>
@@ -27974,7 +27974,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
         <v>741</v>
       </c>
@@ -28006,7 +28006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
         <v>742</v>
       </c>
@@ -28038,7 +28038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
         <v>743</v>
       </c>
@@ -28070,7 +28070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>744</v>
       </c>
@@ -28102,7 +28102,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
         <v>745</v>
       </c>
@@ -28134,7 +28134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
         <v>746</v>
       </c>
@@ -28166,7 +28166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
         <v>747</v>
       </c>
@@ -28198,7 +28198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
         <v>748</v>
       </c>
@@ -28230,7 +28230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>749</v>
       </c>
@@ -28262,7 +28262,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
         <v>750</v>
       </c>
@@ -28294,7 +28294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
         <v>751</v>
       </c>
@@ -28326,7 +28326,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
         <v>752</v>
       </c>
@@ -28358,7 +28358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
         <v>753</v>
       </c>
@@ -28390,7 +28390,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
         <v>754</v>
       </c>
@@ -28422,7 +28422,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
         <v>755</v>
       </c>
@@ -28454,7 +28454,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
         <v>756</v>
       </c>
@@ -28486,7 +28486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
         <v>757</v>
       </c>
@@ -28518,7 +28518,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
         <v>758</v>
       </c>
@@ -28550,7 +28550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
         <v>759</v>
       </c>
@@ -28582,7 +28582,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
         <v>760</v>
       </c>
@@ -28614,7 +28614,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
         <v>761</v>
       </c>
@@ -28646,7 +28646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
         <v>762</v>
       </c>
@@ -28678,7 +28678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
         <v>763</v>
       </c>
@@ -28710,7 +28710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
         <v>764</v>
       </c>
@@ -28742,7 +28742,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
         <v>765</v>
       </c>
@@ -28774,7 +28774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
         <v>766</v>
       </c>
@@ -28806,7 +28806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
         <v>767</v>
       </c>
@@ -28838,7 +28838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
         <v>768</v>
       </c>
@@ -28870,7 +28870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
         <v>769</v>
       </c>
@@ -28902,7 +28902,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
         <v>770</v>
       </c>
@@ -28934,7 +28934,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
         <v>771</v>
       </c>
@@ -28966,7 +28966,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
         <v>772</v>
       </c>
@@ -28998,7 +28998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="s">
         <v>773</v>
       </c>
@@ -29030,7 +29030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
         <v>774</v>
       </c>
@@ -29062,7 +29062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A778" s="1" t="s">
         <v>775</v>
       </c>
@@ -29094,7 +29094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
         <v>776</v>
       </c>
@@ -29126,7 +29126,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A780" s="1" t="s">
         <v>777</v>
       </c>
@@ -29158,7 +29158,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A781" s="1" t="s">
         <v>778</v>
       </c>
@@ -29190,7 +29190,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A782" s="1" t="s">
         <v>779</v>
       </c>
@@ -29222,7 +29222,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="s">
         <v>780</v>
       </c>
@@ -29254,7 +29254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A784" s="1" t="s">
         <v>781</v>
       </c>
@@ -29286,7 +29286,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
         <v>782</v>
       </c>
@@ -29318,7 +29318,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="s">
         <v>783</v>
       </c>
@@ -29350,7 +29350,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
         <v>784</v>
       </c>
@@ -29382,7 +29382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
         <v>785</v>
       </c>
@@ -29414,7 +29414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
         <v>786</v>
       </c>
@@ -29446,7 +29446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="s">
         <v>787</v>
       </c>
@@ -29478,7 +29478,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="s">
         <v>788</v>
       </c>
@@ -29510,7 +29510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
         <v>789</v>
       </c>
@@ -29542,7 +29542,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A793" s="1" t="s">
         <v>790</v>
       </c>
@@ -29574,7 +29574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="s">
         <v>791</v>
       </c>
@@ -29606,7 +29606,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
         <v>792</v>
       </c>
@@ -29638,7 +29638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
         <v>793</v>
       </c>
@@ -29670,7 +29670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
         <v>794</v>
       </c>
@@ -29702,7 +29702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
         <v>795</v>
       </c>
@@ -29734,7 +29734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
         <v>796</v>
       </c>
@@ -29766,7 +29766,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
         <v>797</v>
       </c>
@@ -29798,7 +29798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
         <v>798</v>
       </c>
@@ -29830,7 +29830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
         <v>799</v>
       </c>
@@ -29862,7 +29862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
         <v>800</v>
       </c>
@@ -29894,7 +29894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
         <v>801</v>
       </c>
@@ -29926,7 +29926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
         <v>802</v>
       </c>
@@ -29958,7 +29958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
         <v>803</v>
       </c>
@@ -29990,7 +29990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
         <v>804</v>
       </c>
@@ -30022,7 +30022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
         <v>805</v>
       </c>
@@ -30054,7 +30054,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
         <v>806</v>
       </c>
@@ -30086,7 +30086,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
         <v>807</v>
       </c>
@@ -30118,7 +30118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
         <v>808</v>
       </c>
@@ -30150,7 +30150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
         <v>809</v>
       </c>
@@ -30182,7 +30182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
         <v>810</v>
       </c>
@@ -30214,7 +30214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
         <v>811</v>
       </c>
@@ -30246,7 +30246,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
         <v>812</v>
       </c>
@@ -30278,7 +30278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
         <v>813</v>
       </c>
@@ -30310,7 +30310,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
         <v>814</v>
       </c>
@@ -30342,7 +30342,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
         <v>815</v>
       </c>
@@ -30374,7 +30374,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
         <v>816</v>
       </c>
@@ -30406,7 +30406,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
         <v>817</v>
       </c>
@@ -30438,7 +30438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
         <v>818</v>
       </c>
@@ -30470,7 +30470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
         <v>819</v>
       </c>
@@ -30502,7 +30502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
         <v>820</v>
       </c>
@@ -30534,7 +30534,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
         <v>821</v>
       </c>
@@ -30566,7 +30566,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
         <v>822</v>
       </c>
@@ -30598,7 +30598,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
         <v>823</v>
       </c>
@@ -30630,7 +30630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
         <v>824</v>
       </c>
@@ -30662,7 +30662,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
         <v>825</v>
       </c>
@@ -30694,7 +30694,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
         <v>826</v>
       </c>
@@ -30726,7 +30726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
         <v>827</v>
       </c>
@@ -30758,7 +30758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
         <v>828</v>
       </c>
@@ -30790,7 +30790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
         <v>829</v>
       </c>
@@ -30822,7 +30822,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
         <v>830</v>
       </c>
@@ -30854,7 +30854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
         <v>831</v>
       </c>
@@ -30886,7 +30886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
         <v>832</v>
       </c>
@@ -30918,7 +30918,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
         <v>833</v>
       </c>
@@ -30950,7 +30950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
         <v>834</v>
       </c>
@@ -30982,7 +30982,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
         <v>835</v>
       </c>
@@ -31014,7 +31014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
         <v>836</v>
       </c>
@@ -31046,7 +31046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
         <v>837</v>
       </c>
@@ -31078,7 +31078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
         <v>838</v>
       </c>
@@ -31110,7 +31110,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
         <v>839</v>
       </c>
@@ -31142,7 +31142,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
         <v>840</v>
       </c>
@@ -31174,7 +31174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
         <v>841</v>
       </c>
@@ -31206,7 +31206,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
         <v>842</v>
       </c>
@@ -31238,7 +31238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
         <v>843</v>
       </c>
@@ -31270,7 +31270,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
         <v>844</v>
       </c>
@@ -31302,7 +31302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
         <v>845</v>
       </c>
@@ -31334,7 +31334,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
         <v>846</v>
       </c>
@@ -31366,7 +31366,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
         <v>847</v>
       </c>
@@ -31398,7 +31398,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
         <v>848</v>
       </c>
@@ -31430,7 +31430,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
         <v>849</v>
       </c>
@@ -31462,7 +31462,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
         <v>850</v>
       </c>
@@ -31494,7 +31494,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
         <v>851</v>
       </c>
@@ -31526,7 +31526,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
         <v>852</v>
       </c>
@@ -31558,7 +31558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
         <v>853</v>
       </c>
@@ -31590,7 +31590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
         <v>854</v>
       </c>
@@ -31622,7 +31622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
         <v>855</v>
       </c>
@@ -31654,7 +31654,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
         <v>856</v>
       </c>
@@ -31686,7 +31686,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
         <v>857</v>
       </c>
@@ -31718,7 +31718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
         <v>858</v>
       </c>
@@ -31750,7 +31750,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="862" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
         <v>859</v>
       </c>
@@ -31782,7 +31782,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
         <v>860</v>
       </c>
@@ -31814,7 +31814,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
         <v>861</v>
       </c>
@@ -31846,7 +31846,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
         <v>862</v>
       </c>
@@ -31878,7 +31878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
         <v>863</v>
       </c>
@@ -31910,7 +31910,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
         <v>864</v>
       </c>
@@ -31942,7 +31942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="868" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
         <v>865</v>
       </c>
@@ -31974,7 +31974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="869" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
         <v>866</v>
       </c>
@@ -32006,7 +32006,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
         <v>867</v>
       </c>
@@ -32038,7 +32038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
         <v>868</v>
       </c>
@@ -32070,7 +32070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
         <v>869</v>
       </c>
@@ -32102,7 +32102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
         <v>870</v>
       </c>
@@ -32134,7 +32134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
         <v>871</v>
       </c>
@@ -32166,7 +32166,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
         <v>872</v>
       </c>
@@ -32198,7 +32198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
         <v>873</v>
       </c>
@@ -32230,7 +32230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="s">
         <v>874</v>
       </c>
@@ -32262,7 +32262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
         <v>875</v>
       </c>
@@ -32294,7 +32294,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
         <v>876</v>
       </c>
@@ -32326,7 +32326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A880" s="1" t="s">
         <v>877</v>
       </c>
@@ -32358,7 +32358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="881" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
         <v>878</v>
       </c>
@@ -32390,7 +32390,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="882" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="s">
         <v>879</v>
       </c>
@@ -32422,7 +32422,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="883" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
         <v>880</v>
       </c>
@@ -32454,7 +32454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="884" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
         <v>881</v>
       </c>
@@ -32486,7 +32486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="885" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
         <v>882</v>
       </c>
@@ -32518,7 +32518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="886" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
         <v>883</v>
       </c>
@@ -32550,7 +32550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="887" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
         <v>884</v>
       </c>
@@ -32582,7 +32582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="888" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
         <v>885</v>
       </c>
@@ -32614,7 +32614,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="889" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
         <v>886</v>
       </c>
@@ -32646,7 +32646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="890" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
         <v>887</v>
       </c>
@@ -32678,7 +32678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="891" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
         <v>888</v>
       </c>
@@ -32710,7 +32710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="892" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="s">
         <v>889</v>
       </c>
@@ -32742,7 +32742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="893" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
         <v>890</v>
       </c>
@@ -32774,7 +32774,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="894" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
         <v>891</v>
       </c>
@@ -32806,7 +32806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="895" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
         <v>892</v>
       </c>
@@ -32838,7 +32838,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="896" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="s">
         <v>893</v>
       </c>
@@ -32870,7 +32870,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="897" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
         <v>894</v>
       </c>
@@ -32902,7 +32902,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="898" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
         <v>895</v>
       </c>
@@ -32934,7 +32934,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="899" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
         <v>896</v>
       </c>
@@ -32966,7 +32966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="900" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
         <v>897</v>
       </c>
@@ -32998,7 +32998,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="901" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
         <v>898</v>
       </c>
@@ -33030,7 +33030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="902" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
         <v>899</v>
       </c>
@@ -33062,7 +33062,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="903" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
         <v>900</v>
       </c>
@@ -33094,7 +33094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="904" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
         <v>901</v>
       </c>
@@ -33126,7 +33126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="905" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
         <v>902</v>
       </c>
@@ -33158,7 +33158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="906" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
         <v>903</v>
       </c>
@@ -33190,7 +33190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="907" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
         <v>904</v>
       </c>
@@ -33222,7 +33222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="908" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
         <v>905</v>
       </c>
@@ -33254,7 +33254,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="909" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
         <v>906</v>
       </c>
@@ -33286,7 +33286,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="910" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
         <v>907</v>
       </c>
@@ -33318,7 +33318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="911" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
         <v>908</v>
       </c>
@@ -33350,7 +33350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="912" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
         <v>909</v>
       </c>
@@ -33382,7 +33382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="913" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
         <v>910</v>
       </c>
@@ -33414,7 +33414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="914" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
         <v>911</v>
       </c>
@@ -33446,7 +33446,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="915" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
         <v>912</v>
       </c>
@@ -33478,7 +33478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="916" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
         <v>913</v>
       </c>
@@ -33510,7 +33510,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="917" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
         <v>914</v>
       </c>
@@ -33542,7 +33542,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="918" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
         <v>915</v>
       </c>
@@ -33574,7 +33574,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="919" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
         <v>916</v>
       </c>
@@ -33606,7 +33606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="920" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="s">
         <v>917</v>
       </c>
@@ -33638,7 +33638,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="921" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
         <v>918</v>
       </c>
@@ -33670,7 +33670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="922" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
         <v>919</v>
       </c>
@@ -33702,7 +33702,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="923" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
         <v>920</v>
       </c>
@@ -33734,7 +33734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="924" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="s">
         <v>921</v>
       </c>
@@ -33766,7 +33766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="925" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="s">
         <v>922</v>
       </c>
@@ -33798,7 +33798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="926" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
         <v>923</v>
       </c>
@@ -33830,7 +33830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="927" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="s">
         <v>924</v>
       </c>
@@ -33862,7 +33862,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="928" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
         <v>925</v>
       </c>
@@ -33894,7 +33894,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="929" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
         <v>926</v>
       </c>
@@ -33926,7 +33926,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="930" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
         <v>927</v>
       </c>
@@ -33958,7 +33958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="931" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
         <v>928</v>
       </c>
@@ -33990,7 +33990,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="932" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
         <v>929</v>
       </c>
@@ -34022,7 +34022,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="933" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
         <v>930</v>
       </c>
@@ -34054,7 +34054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="934" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
         <v>931</v>
       </c>
@@ -34086,7 +34086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="935" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
         <v>932</v>
       </c>
@@ -34118,7 +34118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="936" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
         <v>933</v>
       </c>
@@ -34150,7 +34150,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="937" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
         <v>934</v>
       </c>
@@ -34182,7 +34182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="938" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
         <v>935</v>
       </c>
@@ -34214,7 +34214,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="939" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
         <v>936</v>
       </c>
@@ -34246,7 +34246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="940" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
         <v>937</v>
       </c>
@@ -34278,7 +34278,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="941" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
         <v>938</v>
       </c>
@@ -34310,7 +34310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="942" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
         <v>939</v>
       </c>
@@ -34342,7 +34342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="943" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
         <v>940</v>
       </c>
@@ -34374,7 +34374,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="944" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
         <v>941</v>
       </c>
@@ -34406,7 +34406,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="945" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
         <v>942</v>
       </c>
@@ -34438,7 +34438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="946" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
         <v>943</v>
       </c>
@@ -34470,7 +34470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="947" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
         <v>944</v>
       </c>
@@ -34502,7 +34502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="948" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
         <v>945</v>
       </c>
@@ -34534,7 +34534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="949" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
         <v>946</v>
       </c>
@@ -34566,7 +34566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="950" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
         <v>947</v>
       </c>
@@ -34598,7 +34598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="951" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
         <v>948</v>
       </c>
@@ -34630,7 +34630,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="952" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
         <v>949</v>
       </c>
@@ -34662,7 +34662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="953" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
         <v>950</v>
       </c>
@@ -34694,7 +34694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="954" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
         <v>951</v>
       </c>
@@ -34726,7 +34726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="955" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
         <v>952</v>
       </c>
@@ -34758,7 +34758,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="956" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
         <v>953</v>
       </c>
@@ -34790,7 +34790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="957" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
         <v>954</v>
       </c>
@@ -34822,7 +34822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="958" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
         <v>955</v>
       </c>
@@ -34854,7 +34854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="959" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
         <v>956</v>
       </c>
@@ -34886,7 +34886,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="960" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
         <v>957</v>
       </c>
@@ -34918,7 +34918,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="961" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
         <v>958</v>
       </c>
@@ -34950,7 +34950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="962" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
         <v>959</v>
       </c>
@@ -34982,7 +34982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="963" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
         <v>960</v>
       </c>
@@ -35014,7 +35014,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="964" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
         <v>961</v>
       </c>
@@ -35046,7 +35046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="965" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
         <v>962</v>
       </c>
@@ -35078,7 +35078,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="966" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
         <v>963</v>
       </c>
@@ -35110,7 +35110,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="967" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
         <v>964</v>
       </c>
@@ -35142,7 +35142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="968" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
         <v>965</v>
       </c>
@@ -35174,7 +35174,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="969" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
         <v>966</v>
       </c>
@@ -35206,7 +35206,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="970" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
         <v>967</v>
       </c>
@@ -35238,7 +35238,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="971" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
         <v>968</v>
       </c>
@@ -35270,7 +35270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="972" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A972" s="1" t="s">
         <v>969</v>
       </c>
@@ -35302,7 +35302,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="973" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
         <v>970</v>
       </c>
@@ -35334,7 +35334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="974" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
         <v>971</v>
       </c>
@@ -35366,7 +35366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="975" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
         <v>972</v>
       </c>
@@ -35398,7 +35398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="976" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A976" s="1" t="s">
         <v>973</v>
       </c>
@@ -35430,7 +35430,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="977" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
         <v>974</v>
       </c>
@@ -35462,7 +35462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="978" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
         <v>975</v>
       </c>
@@ -35494,7 +35494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="979" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
         <v>976</v>
       </c>
@@ -35526,7 +35526,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="980" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
         <v>977</v>
       </c>
@@ -35558,7 +35558,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="981" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
         <v>978</v>
       </c>
@@ -35590,7 +35590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="982" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
         <v>979</v>
       </c>
@@ -35622,7 +35622,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="983" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
         <v>980</v>
       </c>
@@ -35654,7 +35654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="984" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
         <v>981</v>
       </c>
@@ -35686,7 +35686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="985" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
         <v>982</v>
       </c>
@@ -35718,7 +35718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="986" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A986" s="1" t="s">
         <v>983</v>
       </c>
@@ -35750,7 +35750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="987" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
         <v>984</v>
       </c>
@@ -35782,7 +35782,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="988" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
         <v>985</v>
       </c>
@@ -35814,7 +35814,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="989" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
         <v>986</v>
       </c>
@@ -35846,7 +35846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="990" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
         <v>987</v>
       </c>
@@ -35878,7 +35878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="991" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
         <v>988</v>
       </c>
@@ -35910,7 +35910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="992" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
         <v>989</v>
       </c>
@@ -35942,7 +35942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="993" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
         <v>990</v>
       </c>
@@ -35974,7 +35974,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="994" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A994" s="1" t="s">
         <v>991</v>
       </c>
@@ -36006,7 +36006,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="995" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A995" s="1" t="s">
         <v>992</v>
       </c>
@@ -36038,7 +36038,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="996" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A996" s="1" t="s">
         <v>993</v>
       </c>
@@ -36070,7 +36070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="997" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A997" s="1" t="s">
         <v>994</v>
       </c>
@@ -36102,7 +36102,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="998" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
         <v>995</v>
       </c>
@@ -36134,7 +36134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="999" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A999" s="1" t="s">
         <v>996</v>
       </c>
@@ -36166,7 +36166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1000" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1000" s="1" t="s">
         <v>997</v>
       </c>
@@ -36198,7 +36198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1001" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1001" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1001" s="1" t="s">
         <v>998</v>
       </c>
@@ -36230,7 +36230,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1002" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1002" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1002" s="1" t="s">
         <v>999</v>
       </c>
@@ -36262,7 +36262,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="1003" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1003" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1003" s="1" t="s">
         <v>1000</v>
       </c>
@@ -36294,7 +36294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1004" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1004" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
         <v>1001</v>
       </c>
@@ -36326,7 +36326,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="1005" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1005" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1005" s="1" t="s">
         <v>1002</v>
       </c>
@@ -36358,7 +36358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1006" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1006" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1006" s="1" t="s">
         <v>1003</v>
       </c>
@@ -36390,7 +36390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1007" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1007" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1007" s="1" t="s">
         <v>1004</v>
       </c>
@@ -36422,7 +36422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1008" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1008" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1008" s="1" t="s">
         <v>1005</v>
       </c>
@@ -36454,7 +36454,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1009" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1009" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
         <v>1006</v>
       </c>
@@ -36486,7 +36486,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="1010" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1010" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1010" s="1" t="s">
         <v>1007</v>
       </c>
@@ -36518,7 +36518,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="1011" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1011" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1011" s="1" t="s">
         <v>1008</v>
       </c>
@@ -36550,7 +36550,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1012" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1012" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1012" s="1" t="s">
         <v>1009</v>
       </c>
@@ -36582,7 +36582,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1013" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1013" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1013" s="1" t="s">
         <v>1010</v>
       </c>
@@ -36614,7 +36614,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="1014" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1014" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
         <v>1011</v>
       </c>
@@ -36646,7 +36646,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1015" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1015" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1015" s="1" t="s">
         <v>1012</v>
       </c>
@@ -36678,7 +36678,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1016" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1016" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1016" s="1" t="s">
         <v>1013</v>
       </c>
@@ -36710,7 +36710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1017" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1017" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1017" s="1" t="s">
         <v>1014</v>
       </c>
@@ -36742,7 +36742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1018" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1018" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1018" s="1" t="s">
         <v>1015</v>
       </c>
@@ -36774,7 +36774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1019" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1019" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1019" s="1" t="s">
         <v>1016</v>
       </c>
@@ -36806,7 +36806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1020" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1020" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1020" s="1" t="s">
         <v>1017</v>
       </c>
@@ -36838,7 +36838,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="1021" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1021" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1021" s="1" t="s">
         <v>1018</v>
       </c>
@@ -36870,7 +36870,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="1022" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1022" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1022" s="1" t="s">
         <v>1019</v>
       </c>
@@ -36902,7 +36902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1023" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1023" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1023" s="1" t="s">
         <v>1020</v>
       </c>
@@ -36934,7 +36934,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1024" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1024" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1024" s="1" t="s">
         <v>1021</v>
       </c>
@@ -36966,7 +36966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1025" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1025" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1025" s="1" t="s">
         <v>1022</v>
       </c>
@@ -36998,7 +36998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1026" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1026" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1026" s="1" t="s">
         <v>1023</v>
       </c>
@@ -37030,7 +37030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1027" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1027" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1027" s="1" t="s">
         <v>1024</v>
       </c>
@@ -37062,7 +37062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1028" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1028" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1028" s="1" t="s">
         <v>1025</v>
       </c>
@@ -37094,7 +37094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1029" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1029" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1029" s="1" t="s">
         <v>1026</v>
       </c>
@@ -37126,7 +37126,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="1030" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1030" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1030" s="1" t="s">
         <v>1027</v>
       </c>
@@ -37158,7 +37158,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1031" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1031" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1031" s="1" t="s">
         <v>1028</v>
       </c>
@@ -37190,7 +37190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1032" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1032" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1032" s="1" t="s">
         <v>1029</v>
       </c>
@@ -37222,7 +37222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1033" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1033" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1033" s="1" t="s">
         <v>1030</v>
       </c>
@@ -37254,7 +37254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1034" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1034" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1034" s="1" t="s">
         <v>1031</v>
       </c>
@@ -37286,7 +37286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1035" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1035" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1035" s="1" t="s">
         <v>1032</v>
       </c>
@@ -37318,7 +37318,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="1036" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1036" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1036" s="1" t="s">
         <v>1033</v>
       </c>
@@ -37350,7 +37350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1037" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1037" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1037" s="1" t="s">
         <v>1034</v>
       </c>
@@ -37382,7 +37382,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1038" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1038" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1038" s="1" t="s">
         <v>1035</v>
       </c>
@@ -37414,7 +37414,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1039" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1039" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1039" s="1" t="s">
         <v>1036</v>
       </c>
@@ -37446,7 +37446,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1040" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1040" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1040" s="1" t="s">
         <v>1037</v>
       </c>
@@ -37478,7 +37478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1041" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1041" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1041" s="1" t="s">
         <v>1038</v>
       </c>
@@ -37510,7 +37510,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="1042" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1042" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1042" s="1" t="s">
         <v>1039</v>
       </c>
@@ -37542,7 +37542,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1043" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1043" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1043" s="1" t="s">
         <v>1040</v>
       </c>
@@ -37574,7 +37574,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1044" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1044" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1044" s="1" t="s">
         <v>1041</v>
       </c>
@@ -37606,7 +37606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1045" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1045" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1045" s="1" t="s">
         <v>1042</v>
       </c>
@@ -37638,7 +37638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1046" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1046" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1046" s="1" t="s">
         <v>1043</v>
       </c>
@@ -37670,7 +37670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1047" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1047" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1047" s="1" t="s">
         <v>1044</v>
       </c>
@@ -37702,7 +37702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1048" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1048" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1048" s="1" t="s">
         <v>1045</v>
       </c>
@@ -37734,7 +37734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1049" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1049" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1049" s="1" t="s">
         <v>1046</v>
       </c>
@@ -37766,7 +37766,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1050" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1050" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1050" s="1" t="s">
         <v>1047</v>
       </c>
@@ -37798,7 +37798,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="1051" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1051" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1051" s="1" t="s">
         <v>1048</v>
       </c>
@@ -37830,7 +37830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1052" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1052" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1052" s="1" t="s">
         <v>1049</v>
       </c>
@@ -37862,7 +37862,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1053" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1053" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1053" s="1" t="s">
         <v>1050</v>
       </c>
@@ -37894,7 +37894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1054" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1054" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1054" s="1" t="s">
         <v>1051</v>
       </c>
@@ -37926,7 +37926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1055" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1055" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1055" s="1" t="s">
         <v>1052</v>
       </c>
@@ -37958,7 +37958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1056" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1056" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1056" s="1" t="s">
         <v>1053</v>
       </c>
@@ -37990,7 +37990,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="1057" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1057" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1057" s="1" t="s">
         <v>1054</v>
       </c>
@@ -38022,7 +38022,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="1058" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1058" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1058" s="1" t="s">
         <v>1055</v>
       </c>
@@ -38054,7 +38054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1059" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1059" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1059" s="1" t="s">
         <v>1056</v>
       </c>
@@ -38086,7 +38086,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="1060" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1060" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1060" s="1" t="s">
         <v>1057</v>
       </c>
@@ -38118,7 +38118,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1061" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1061" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1061" s="1" t="s">
         <v>1058</v>
       </c>
@@ -38150,7 +38150,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="1062" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1062" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1062" s="1" t="s">
         <v>1059</v>
       </c>
@@ -38182,7 +38182,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1063" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1063" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1063" s="1" t="s">
         <v>1060</v>
       </c>
@@ -38214,7 +38214,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="1064" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1064" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1064" s="1" t="s">
         <v>1061</v>
       </c>
@@ -38246,7 +38246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1065" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1065" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1065" s="1" t="s">
         <v>1062</v>
       </c>
@@ -38278,7 +38278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1066" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1066" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1066" s="1" t="s">
         <v>1063</v>
       </c>
@@ -38310,7 +38310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1067" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1067" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1067" s="1" t="s">
         <v>1064</v>
       </c>
@@ -38342,7 +38342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1068" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1068" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1068" s="1" t="s">
         <v>1065</v>
       </c>
@@ -38374,7 +38374,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1069" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1069" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1069" s="1" t="s">
         <v>1066</v>
       </c>
@@ -38406,7 +38406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1070" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1070" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1070" s="1" t="s">
         <v>1067</v>
       </c>
@@ -38438,7 +38438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1071" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1071" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1071" s="1" t="s">
         <v>1068</v>
       </c>
@@ -38470,7 +38470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1072" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1072" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1072" s="1" t="s">
         <v>1069</v>
       </c>
@@ -38502,7 +38502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1073" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1073" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1073" s="1" t="s">
         <v>1070</v>
       </c>
@@ -38534,7 +38534,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="1074" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1074" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1074" s="1" t="s">
         <v>1071</v>
       </c>
@@ -38566,7 +38566,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1075" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1075" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1075" s="1" t="s">
         <v>1072</v>
       </c>
@@ -38598,7 +38598,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1076" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1076" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1076" s="1" t="s">
         <v>1073</v>
       </c>
@@ -38630,7 +38630,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="1077" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1077" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1077" s="1" t="s">
         <v>1074</v>
       </c>
@@ -38662,7 +38662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1078" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1078" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1078" s="1" t="s">
         <v>1075</v>
       </c>
@@ -38694,7 +38694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1079" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1079" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1079" s="1" t="s">
         <v>1076</v>
       </c>
@@ -38726,7 +38726,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="1080" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1080" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1080" s="1" t="s">
         <v>1077</v>
       </c>
@@ -38758,7 +38758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1081" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1081" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1081" s="1" t="s">
         <v>1078</v>
       </c>

--- a/Tables/Supp Table 1 - FullGoDensityLocality.xlsx
+++ b/Tables/Supp Table 1 - FullGoDensityLocality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\CamocoManuscript\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\rob\Documents\CamocoManuscript\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3334,7 +3334,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Full gene ontology term density and locality p-values.</t>
+      <t xml:space="preserve">Full gene ontology term density and locality p-values. </t>
     </r>
     <r>
       <rPr>
@@ -3344,8 +3344,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-Density and locality scores were measured between genes within each GO term. Subnetwork p-values were generated for both density and locality by comparing each term’s metric to 1,000 randomized gene sets of the same size. The "Number of Network Genes in GO Terms" indicates the intersect between genes present in the network and genes annotated to a GO term.
+      <t xml:space="preserve">Density and locality scores were measured between genes within each GO term. Subnetwork p-values were generated for both density and locality by comparing each term’s metric to 1,000 randomized gene sets of the same size. The "Number of Network Genes in GO Terms" indicates the intersect between genes present in the network and genes annotated to a GO term. Supports Table 1.
 </t>
     </r>
   </si>
@@ -38798,5 +38797,6 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>